--- a/doc/log/log_201608040218_zhaoxiangyang.xlsx
+++ b/doc/log/log_201608040218_zhaoxiangyang.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E43727-9246-4FA0-A891-9DC0A5540F83}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EE86B8E-9D41-4000-AA6E-8051E29A1BDA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>问题与后续计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,7 +42,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自己与小组成员继续讨论研究该模块的构建</t>
+    <t>19:00-21:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -54,7 +50,186 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模块还在执行中</t>
+    <t>建立学生成绩模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立模块的相关实体</t>
+  </si>
+  <si>
+    <t>建立模块的相关实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体类定义没有完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立实体类Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体类定义完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充实体类代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习环境知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分知识了解一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码补充失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分代码补充成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立相关实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习上传GitHub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块代码上传完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组代码同一环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境统一完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组模块内容整合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生成绩数据库运行测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善成绩数据库代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习建立学生成绩模块的实体类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次建立自己的achievement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习javaee方面知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还在学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境坏了，重新弄环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境配置成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:50-10:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-18:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:50-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:30-20:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:50-21:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:30-21:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:20-21:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:30-21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:40-20:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:20-20:50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,7 +279,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -385,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -397,45 +574,301 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="36.58203125" customWidth="1"/>
     <col min="4" max="4" width="25.58203125" customWidth="1"/>
-    <col min="5" max="5" width="30.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43221</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43222</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43223</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43224</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43226</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43227</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43228</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43229</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43230</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43231</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43232</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43233</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43234</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43235</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>43236</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>43237</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43238</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>43239</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/log/log_201608040218_zhaoxiangyang.xlsx
+++ b/doc/log/log_201608040218_zhaoxiangyang.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{789FA923-2D02-4F02-AF97-DDA6D21DB908}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8EC5D656-0CA1-4E21-BC2F-CECC85F54EB8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10210" windowHeight="2010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="156">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -566,6 +566,82 @@
   </si>
   <si>
     <t>完善自己查询模块并上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充个人日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写配置管理员的文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充完善自己小组的项目开发文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30-15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并小组模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30-15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理、上传总结文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并整理所有课设项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -899,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1767,6 +1843,104 @@
         <v>134</v>
       </c>
     </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B63" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>43283</v>
+      </c>
+      <c r="B64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>43284</v>
+      </c>
+      <c r="B65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>43285</v>
+      </c>
+      <c r="B66" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" t="s">
+        <v>151</v>
+      </c>
+      <c r="D66" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>43286</v>
+      </c>
+      <c r="B67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>43287</v>
+      </c>
+      <c r="B68" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
